--- a/file.xlsx
+++ b/file.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duotech\newWK\ecommerce-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECECD92-7F92-4626-A635-DA4E217929DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FD89AA-EF7D-4BC1-957C-D828FE3EE678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16C9B6D8-7B55-4336-A644-C3F6A22B17C9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -276,30 +276,6 @@
     <t>zip</t>
   </si>
   <si>
-    <t>31968-2445</t>
-  </si>
-  <si>
-    <t>35994-1225</t>
-  </si>
-  <si>
-    <t>46836-7646</t>
-  </si>
-  <si>
-    <t>89089-1893</t>
-  </si>
-  <si>
-    <t>42098-5754</t>
-  </si>
-  <si>
-    <t>23575-3957</t>
-  </si>
-  <si>
-    <t>36804-4126</t>
-  </si>
-  <si>
-    <t>82727-8911</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -339,17 +315,13 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Smith</t>
+    <t>Rudy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,19 +680,19 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -746,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -754,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -772,7 +744,7 @@
         <v>33447</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -798,7 +770,7 @@
         <v>41651</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -820,11 +792,11 @@
       <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
+      <c r="G4" s="1">
+        <v>31968</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -850,7 +822,7 @@
         <v>10830</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -872,11 +844,11 @@
       <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>82</v>
+      <c r="G6" s="1">
+        <v>35994</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -898,11 +870,11 @@
       <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
+      <c r="G7" s="1">
+        <v>46836</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -924,11 +896,11 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>89089</v>
+      </c>
+      <c r="H8" t="s">
         <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -954,7 +926,7 @@
         <v>56415</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -976,11 +948,11 @@
       <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
+      <c r="G10" s="1">
+        <v>42098</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1002,11 +974,11 @@
       <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
+      <c r="G11" s="1">
+        <v>23575</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1032,7 +1004,7 @@
         <v>75287</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,7 +1030,7 @@
         <v>4527</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1080,11 +1052,11 @@
       <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
+      <c r="G14" s="1">
+        <v>36804</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,7 +1082,7 @@
         <v>27197</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,11 +1104,11 @@
       <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>88</v>
+      <c r="G16" s="1">
+        <v>82727</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
